--- a/Datos/Anuario2024/110301_Bomberos.xlsx
+++ b/Datos/Anuario2024/110301_Bomberos.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2 graf1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="0" sheetId="25" r:id="rId1"/>
+    <sheet name="1" sheetId="26" r:id="rId2"/>
+    <sheet name="2" sheetId="28" r:id="rId3"/>
+    <sheet name="2 graf1" sheetId="45" r:id="rId4"/>
+    <sheet name="3" sheetId="37" r:id="rId5"/>
+    <sheet name="4" sheetId="44" r:id="rId6"/>
+    <sheet name="5" sheetId="57" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -22,70 +28,127 @@
   </externalReferences>
   <definedNames>
     <definedName name="_BLA2">'[1]1.3'!$C$2:$F$22</definedName>
+    <definedName name="_R1_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_10">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
+    <definedName name="_R1_6" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_6">#REF!</definedName>
+    <definedName name="_R1_7" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
+    <definedName name="_R1_8" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_8">#REF!</definedName>
+    <definedName name="_R1_9" localSheetId="6">#REF!</definedName>
     <definedName name="_R1_9">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_10">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_11">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_12">#REF!</definedName>
+    <definedName name="_R2_13" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_13">#REF!</definedName>
+    <definedName name="_R2_14" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_14">#REF!</definedName>
+    <definedName name="_R2_15" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_15">#REF!</definedName>
+    <definedName name="_R2_16" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_16">#REF!</definedName>
+    <definedName name="_R2_17" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_17">#REF!</definedName>
     <definedName name="_R2_18">'[1]2.16'!$B$2:$K$4</definedName>
+    <definedName name="_R2_19" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_19">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_20" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_20">#REF!</definedName>
+    <definedName name="_R2_21" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_21">#REF!</definedName>
     <definedName name="_R2_22">'[1]2.34'!$B$2:$F$4</definedName>
+    <definedName name="_R2_3" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_5">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_6">#REF!</definedName>
     <definedName name="_R2_7">'[1]2.26'!$B$2:$L$36</definedName>
+    <definedName name="_R2_8" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_8">#REF!</definedName>
+    <definedName name="_R2_9" localSheetId="6">#REF!</definedName>
     <definedName name="_R2_9">#REF!</definedName>
+    <definedName name="_R3_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_10">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_11">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_12">#REF!</definedName>
     <definedName name="_R3_13">'[2]2.3'!$A$1:$K$41</definedName>
+    <definedName name="_R3_14" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_14">#REF!</definedName>
     <definedName name="_R3_15">'[2]2.4'!$A$1:$K$136</definedName>
     <definedName name="_R3_16">'[2]2.7'!$A$1:$M$113</definedName>
+    <definedName name="_R3_17" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_17">#REF!</definedName>
     <definedName name="_R3_18">'[2]2.5'!$A$1:$G$25</definedName>
+    <definedName name="_R3_19" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_19">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_20">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_21">#REF!</definedName>
     <definedName name="_R3_22">'[2]2.6'!$A$1:$G$25</definedName>
+    <definedName name="_R3_3" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="6">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_10">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_11">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_8">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="6">#REF!</definedName>
     <definedName name="_R4_9">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_10">#REF!</definedName>
     <definedName name="_R5_11">'[2]4.15'!$A$1:$B$18</definedName>
     <definedName name="_R5_12">'[2]4.17'!$A$1:$I$8</definedName>
@@ -93,235 +156,480 @@
     <definedName name="_R5_14">'[2]4.16'!$A$1:$N$7</definedName>
     <definedName name="_R5_15">'[2]4.20'!$A$1:$M$6</definedName>
     <definedName name="_R5_16">'[2]4.22'!$A$1:$M$13</definedName>
+    <definedName name="_R5_17" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_17">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_18">#REF!</definedName>
     <definedName name="_R5_19">'[2]4.34'!$A$1:$G$22</definedName>
+    <definedName name="_R5_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
     <definedName name="_R5_20">'[2]4.31'!$A$1:$G$22</definedName>
+    <definedName name="_R5_21" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_21">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_22">#REF!</definedName>
     <definedName name="_R5_23">'[2]4.36'!$A$1:$J$26</definedName>
     <definedName name="_R5_24">'[2]4.33'!$A$1:$J$26</definedName>
     <definedName name="_R5_25">'[2]4.30'!$A$1:$F$10</definedName>
     <definedName name="_R5_26">'[2]4.37'!$A$1:$U$26</definedName>
+    <definedName name="_R5_3" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
+    <definedName name="_R5_4" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_4">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_5">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
+    <definedName name="_R5_7" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="6">#REF!</definedName>
     <definedName name="_R5_9">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="6">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="6">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_3">'[1]5.2'!$B$2:$G$4</definedName>
     <definedName name="_R6_4">'[1]5.4'!$B$2:$N$8</definedName>
+    <definedName name="_R6_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="6">#REF!</definedName>
     <definedName name="_R6_9">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="6">#REF!</definedName>
     <definedName name="_R8_3">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="6">#REF!</definedName>
     <definedName name="_R8_4">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="6">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="a">'[3]1.1'!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2 graf1'!$A$1:$B$25</definedName>
+    <definedName name="b" localSheetId="6">#REF!</definedName>
     <definedName name="b">#REF!</definedName>
+    <definedName name="BLA" localSheetId="6">#REF!</definedName>
     <definedName name="BLA">#REF!</definedName>
     <definedName name="gd">'[3]2.21'!$A$1:$G$50</definedName>
+    <definedName name="m" localSheetId="6">#REF!</definedName>
     <definedName name="m">#REF!</definedName>
     <definedName name="n">'[3]1.1'!$A$1:$I$38</definedName>
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2 graf1'!$A$1:$B$25</definedName>
-    <definedName name="_R1_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_6" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_7" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_8" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_13" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_14" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_15" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_16" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_17" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_19" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_20" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_21" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_8" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_7" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="6">#REF!</definedName>
-    <definedName name="b" localSheetId="6">#REF!</definedName>
-    <definedName name="BLA" localSheetId="6">#REF!</definedName>
-    <definedName name="m" localSheetId="6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Vehículos</t>
+  </si>
+  <si>
+    <t>Parque Central</t>
+  </si>
+  <si>
+    <t>Parque Campanar</t>
+  </si>
+  <si>
+    <t>Parque del Saler</t>
+  </si>
+  <si>
+    <t>Parque Norte</t>
+  </si>
+  <si>
+    <t>Nota: No se incluyen los servicios en el parque.</t>
+  </si>
+  <si>
+    <t>Incendios</t>
+  </si>
+  <si>
+    <t>Contenedores</t>
+  </si>
+  <si>
+    <t>Matorrales, solares o vertederos</t>
+  </si>
+  <si>
+    <t>Árboles</t>
+  </si>
+  <si>
+    <t>Garajes</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Asistencia técnica</t>
+  </si>
+  <si>
+    <t>Actividades preventivas</t>
+  </si>
+  <si>
+    <t>Absorción de derrames</t>
+  </si>
+  <si>
+    <t>Enseres vía pública</t>
+  </si>
+  <si>
+    <t>Mercancías peligrosas</t>
+  </si>
+  <si>
+    <t>Falsas alarmas</t>
+  </si>
+  <si>
+    <t>Salvamentos</t>
+  </si>
+  <si>
+    <t>Relacionados con himenópteros</t>
+  </si>
+  <si>
+    <t>Caída de carteles, farolas y otros</t>
+  </si>
+  <si>
+    <t>Desconexión de alarmas</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Ene</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Ago</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dic</t>
+  </si>
+  <si>
+    <t>Forestales</t>
+  </si>
+  <si>
+    <t>Rescate de animales</t>
+  </si>
+  <si>
+    <t>Aperturas de puertas</t>
+  </si>
+  <si>
+    <t>Salvamento en ascensores</t>
+  </si>
+  <si>
+    <t>Parque Centro Histórico</t>
+  </si>
+  <si>
+    <t>Viviendas</t>
+  </si>
+  <si>
+    <t>Industriales</t>
+  </si>
+  <si>
+    <t>Locales públicos</t>
+  </si>
+  <si>
+    <t>Accidentes de tráfico</t>
+  </si>
+  <si>
+    <t>Agua (cortes, fugas, achiques)</t>
+  </si>
+  <si>
+    <t>Cortes de ramas y árboles</t>
+  </si>
+  <si>
+    <t>Relacionados con la edificación</t>
+  </si>
+  <si>
+    <t>Relacionados con la electricidad</t>
+  </si>
+  <si>
+    <t>Gas (cortes, fugas)</t>
+  </si>
+  <si>
+    <t>Atención a impedidos</t>
+  </si>
+  <si>
+    <t>Otros salvamentos</t>
+  </si>
+  <si>
+    <t>Caidas en zanjas, pozos</t>
+  </si>
+  <si>
+    <t>Personas en riesgo, presuntos suicidas o precipitados</t>
+  </si>
+  <si>
+    <t>Salvamentos en medio acuático</t>
+  </si>
+  <si>
+    <t>Parque Oeste</t>
+  </si>
+  <si>
+    <t>PREVENCIÓN Y EXTINCIÓN DE INCENDIOS Y SALVAMENTOS</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Otras poblaciones</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Actividades divulgativas</t>
+  </si>
+  <si>
+    <t>Revisión de hidrantes</t>
+  </si>
+  <si>
+    <t>Verificación de columnas secas</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Buque / Puerto</t>
+  </si>
+  <si>
+    <t>1. Dotación permanente según parque. 2023</t>
+  </si>
+  <si>
+    <t>2. Servicios según tipo. 2023</t>
+  </si>
+  <si>
+    <t>3. Servicios según tipos principales y mes. 2023</t>
+  </si>
+  <si>
+    <t>4. Servicios según tipos principales y día de la semana. 2023</t>
+  </si>
+  <si>
+    <t>5. Servicios según tipos principales y distrito. 2023</t>
+  </si>
+  <si>
+    <t>Inspecciones de edificaciones</t>
+  </si>
+  <si>
+    <t>Otras inspecciones</t>
+  </si>
+  <si>
+    <t>Fuente: Departamento de Bomberos, Prevención, Intervención en Emergencias y Protección Civil. Ayuntamiento de València</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -350,191 +658,180 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="8"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Normal 5" xfId="6"/>
     <cellStyle name="Normal_3.4" xfId="4"/>
     <cellStyle name="Normal_Hoja3" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 2 2" xfId="8"/>
+    <cellStyle name="Porcentaje" xfId="13" builtinId="5"/>
     <cellStyle name="Porcentaje 2" xfId="9"/>
     <cellStyle name="style1595592910070" xfId="10"/>
+    <cellStyle name="style1595592910101" xfId="12"/>
     <cellStyle name="style1595592910148" xfId="11"/>
-    <cellStyle name="style1595592910101" xfId="12"/>
-    <cellStyle name="Porcentaje" xfId="13" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -603,13 +900,86 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4865370</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="198120" y="264795"/>
+          <a:ext cx="5038725" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2267,8 +2637,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13956,7 +14326,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17751,8 +18121,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19934,8 +20304,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20931,2468 +21301,2521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja22">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="67.7109375" customWidth="1" style="24" min="1" max="1"/>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="24">
-      <c r="A1" s="68" t="inlineStr">
-        <is>
-          <t>PREVENCIÓN Y EXTINCIÓN DE INCENDIOS Y SALVAMENTOS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja23">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20.7109375" customWidth="1" style="24" min="1" max="1"/>
-    <col width="11.7109375" customWidth="1" style="24" min="2" max="2"/>
-    <col width="15" customWidth="1" style="24" min="3" max="4"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="24">
-      <c r="A1" s="68" t="inlineStr">
-        <is>
-          <t>1. Dotación permanente según parque. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="34" t="n"/>
-      <c r="C1" s="34" t="n"/>
-      <c r="D1" s="34" t="n"/>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="34" t="n"/>
-      <c r="B2" s="34" t="n"/>
-      <c r="C2" s="34" t="n"/>
-      <c r="D2" s="34" t="n"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="18" customHeight="1" s="24">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>Vehículos</t>
-        </is>
-      </c>
-      <c r="C3" s="63" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="24">
-      <c r="A4" s="34" t="inlineStr">
-        <is>
-          <t>Parque Central</t>
-        </is>
-      </c>
-      <c r="B4" s="34" t="n">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
         <v>14</v>
       </c>
-      <c r="C4" s="21" t="n">
+      <c r="C4" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="24">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Parque Norte</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="24">
-      <c r="A6" s="34" t="inlineStr">
-        <is>
-          <t>Parque Centro Histórico</t>
-        </is>
-      </c>
-      <c r="B6" s="55" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="55">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="n">
+      <c r="C6" s="55">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="24">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Parque Campanar</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="24">
-      <c r="A8" s="34" t="inlineStr">
-        <is>
-          <t>Parque del Saler</t>
-        </is>
-      </c>
-      <c r="B8" s="34" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="n">
+      <c r="C8" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="24">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Parque Oeste</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Fuente: Departamento de Bomberos, Prevención, Intervención en Emergencias y Protección Civil. Ayuntamiento de València</t>
-        </is>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja24">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="46.28515625" bestFit="1" customWidth="1" style="24" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="24" min="2" max="3"/>
-    <col width="11.42578125" customWidth="1" style="24" min="4" max="16384"/>
+    <col min="1" max="1" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="24">
-      <c r="A1" s="68" t="inlineStr">
-        <is>
-          <t>2. Servicios según tipo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="40" t="n"/>
-      <c r="C1" s="34" t="n"/>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="11"/>
     </row>
-    <row r="2">
-      <c r="A2" s="34" t="n"/>
-      <c r="B2" s="40" t="n"/>
-      <c r="C2" s="34" t="n"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="11"/>
     </row>
-    <row r="3" ht="18.75" customFormat="1" customHeight="1" s="29">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="15" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+    <row r="3" spans="1:4" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="29">
-      <c r="A4" s="46" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="47" t="n">
+    <row r="4" spans="1:4" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="47">
         <v>9044</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="64">
         <f>B4/B$4</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="29">
-      <c r="A5" s="41" t="inlineStr">
-        <is>
-          <t>Incendios</t>
-        </is>
-      </c>
-      <c r="B5" s="45" t="n">
+    <row r="5" spans="1:4" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="45">
         <v>2051</v>
       </c>
-      <c r="C5" s="70">
-        <f>B5/B$4</f>
-        <v/>
-      </c>
+      <c r="C5" s="65">
+        <f t="shared" ref="C5:C46" si="0">B5/B$4</f>
+        <v>0.22678018575851394</v>
+      </c>
+      <c r="D5" s="24"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="24">
-      <c r="A6" s="43" t="inlineStr">
-        <is>
-          <t>Árboles</t>
-        </is>
-      </c>
-      <c r="B6" s="17" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17">
         <v>218</v>
       </c>
-      <c r="C6" s="71">
-        <f>B6/B$4</f>
-        <v/>
+      <c r="C6" s="66">
+        <f t="shared" si="0"/>
+        <v>2.410437859354268E-2</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="24">
-      <c r="A7" s="44" t="inlineStr">
-        <is>
-          <t>Buque / Puerto</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="72">
-        <f>B7/B$4</f>
-        <v/>
+      <c r="C7" s="67">
+        <f t="shared" si="0"/>
+        <v>2.2114108801415304E-4</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="24">
-      <c r="A8" s="43" t="inlineStr">
-        <is>
-          <t>Contenedores</t>
-        </is>
-      </c>
-      <c r="B8" s="17" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17">
         <v>606</v>
       </c>
-      <c r="C8" s="71">
-        <f>B8/B$4</f>
-        <v/>
+      <c r="C8" s="66">
+        <f t="shared" si="0"/>
+        <v>6.7005749668288372E-2</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="24">
-      <c r="A9" s="44" t="inlineStr">
-        <is>
-          <t>Enseres vía pública</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13">
         <v>26</v>
       </c>
-      <c r="C9" s="72">
-        <f>B9/B$4</f>
-        <v/>
+      <c r="C9" s="67">
+        <f t="shared" si="0"/>
+        <v>2.8748341441839896E-3</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="24">
-      <c r="A10" s="43" t="inlineStr">
-        <is>
-          <t>Forestales</t>
-        </is>
-      </c>
-      <c r="B10" s="17" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="17">
         <v>34</v>
       </c>
-      <c r="C10" s="71">
-        <f>B10/B$4</f>
-        <v/>
+      <c r="C10" s="66">
+        <f t="shared" si="0"/>
+        <v>3.7593984962406013E-3</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="24">
-      <c r="A11" s="44" t="inlineStr">
-        <is>
-          <t>Garajes</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13">
         <v>18</v>
       </c>
-      <c r="C11" s="72">
-        <f>B11/B$4</f>
-        <v/>
+      <c r="C11" s="67">
+        <f t="shared" si="0"/>
+        <v>1.9902697921273774E-3</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="24">
-      <c r="A12" s="43" t="inlineStr">
-        <is>
-          <t>Industriales</t>
-        </is>
-      </c>
-      <c r="B12" s="17" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="17">
         <v>12</v>
       </c>
-      <c r="C12" s="71">
-        <f>B12/B$4</f>
-        <v/>
+      <c r="C12" s="66">
+        <f t="shared" si="0"/>
+        <v>1.3268465280849183E-3</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="24">
-      <c r="A13" s="44" t="inlineStr">
-        <is>
-          <t>Locales públicos</t>
-        </is>
-      </c>
-      <c r="B13" s="13" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13">
         <v>87</v>
       </c>
-      <c r="C13" s="72">
-        <f>B13/B$4</f>
-        <v/>
+      <c r="C13" s="67">
+        <f t="shared" si="0"/>
+        <v>9.6196373286156576E-3</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="24">
-      <c r="A14" s="43" t="inlineStr">
-        <is>
-          <t>Matorrales, solares o vertederos</t>
-        </is>
-      </c>
-      <c r="B14" s="17" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17">
         <v>191</v>
       </c>
-      <c r="C14" s="71">
-        <f>B14/B$4</f>
-        <v/>
+      <c r="C14" s="66">
+        <f t="shared" si="0"/>
+        <v>2.1118973905351616E-2</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="24">
-      <c r="A15" s="44" t="inlineStr">
-        <is>
-          <t>Metro</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="13">
         <v>1</v>
       </c>
-      <c r="C15" s="72">
-        <f>B15/B$4</f>
-        <v/>
+      <c r="C15" s="67">
+        <f t="shared" si="0"/>
+        <v>1.1057054400707652E-4</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="24">
-      <c r="A16" s="43" t="inlineStr">
-        <is>
-          <t>Vehículos</t>
-        </is>
-      </c>
-      <c r="B16" s="17" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17">
         <v>172</v>
       </c>
-      <c r="C16" s="71">
-        <f>B16/B$4</f>
-        <v/>
+      <c r="C16" s="66">
+        <f t="shared" si="0"/>
+        <v>1.9018133569217159E-2</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="24">
-      <c r="A17" s="44" t="inlineStr">
-        <is>
-          <t>Viviendas</t>
-        </is>
-      </c>
-      <c r="B17" s="13" t="n">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="13">
         <v>614</v>
       </c>
-      <c r="C17" s="72">
-        <f>B17/B$4</f>
-        <v/>
+      <c r="C17" s="67">
+        <f t="shared" si="0"/>
+        <v>6.7890314020344983E-2</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="24">
-      <c r="A18" s="43" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="B18" s="17" t="n">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="17">
         <v>70</v>
       </c>
-      <c r="C18" s="71">
-        <f>B18/B$4</f>
-        <v/>
+      <c r="C18" s="66">
+        <f t="shared" si="0"/>
+        <v>7.7399380804953561E-3</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="24">
-      <c r="A19" s="41" t="inlineStr">
-        <is>
-          <t>Salvamentos</t>
-        </is>
-      </c>
-      <c r="B19" s="45" t="n">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="45">
         <v>5683</v>
       </c>
-      <c r="C19" s="70">
-        <f>B19/B$4</f>
-        <v/>
+      <c r="C19" s="65">
+        <f t="shared" si="0"/>
+        <v>0.62837240159221586</v>
       </c>
     </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="26">
-      <c r="A20" s="43" t="inlineStr">
-        <is>
-          <t>Absorción de derrames</t>
-        </is>
-      </c>
-      <c r="B20" s="17" t="n">
+    <row r="20" spans="1:4" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="17">
         <v>424</v>
       </c>
-      <c r="C20" s="71">
-        <f>B20/B$4</f>
-        <v/>
-      </c>
+      <c r="C20" s="66">
+        <f t="shared" si="0"/>
+        <v>4.6881910659000443E-2</v>
+      </c>
+      <c r="D20" s="24"/>
     </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="26">
-      <c r="A21" s="44" t="inlineStr">
-        <is>
-          <t>Accidentes de tráfico</t>
-        </is>
-      </c>
-      <c r="B21" s="13" t="n">
+    <row r="21" spans="1:4" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="13">
         <v>199</v>
       </c>
-      <c r="C21" s="72">
-        <f>B21/B$4</f>
-        <v/>
-      </c>
+      <c r="C21" s="67">
+        <f t="shared" si="0"/>
+        <v>2.2003538257408226E-2</v>
+      </c>
+      <c r="D21" s="24"/>
     </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="26">
-      <c r="A22" s="43" t="inlineStr">
-        <is>
-          <t>Agua (cortes, fugas, achiques)</t>
-        </is>
-      </c>
-      <c r="B22" s="17" t="n">
+    <row r="22" spans="1:4" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="17">
         <v>419</v>
       </c>
-      <c r="C22" s="71">
-        <f>B22/B$4</f>
-        <v/>
-      </c>
+      <c r="C22" s="66">
+        <f t="shared" si="0"/>
+        <v>4.6329057938965058E-2</v>
+      </c>
+      <c r="D22" s="24"/>
     </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="29">
-      <c r="A23" s="44" t="inlineStr">
-        <is>
-          <t>Aperturas de puertas</t>
-        </is>
-      </c>
-      <c r="B23" s="13" t="n">
+    <row r="23" spans="1:4" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13">
         <v>1275</v>
       </c>
-      <c r="C23" s="72">
-        <f>B23/B$4</f>
-        <v/>
-      </c>
+      <c r="C23" s="67">
+        <f t="shared" si="0"/>
+        <v>0.14097744360902256</v>
+      </c>
+      <c r="D23" s="24"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="24">
-      <c r="A24" s="43" t="inlineStr">
-        <is>
-          <t>Caída de carteles, farolas y otros</t>
-        </is>
-      </c>
-      <c r="B24" s="17" t="n">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17">
         <v>51</v>
       </c>
-      <c r="C24" s="71">
-        <f>B24/B$4</f>
-        <v/>
+      <c r="C24" s="66">
+        <f t="shared" si="0"/>
+        <v>5.6390977443609019E-3</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="24">
-      <c r="A25" s="44" t="inlineStr">
-        <is>
-          <t>Cortes de ramas y árboles</t>
-        </is>
-      </c>
-      <c r="B25" s="13" t="n">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="13">
         <v>713</v>
       </c>
-      <c r="C25" s="72">
-        <f>B25/B$4</f>
-        <v/>
+      <c r="C25" s="67">
+        <f t="shared" si="0"/>
+        <v>7.8836797877045561E-2</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="24">
-      <c r="A26" s="43" t="inlineStr">
-        <is>
-          <t>Desconexión de alarmas</t>
-        </is>
-      </c>
-      <c r="B26" s="17" t="n">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="17">
         <v>74</v>
       </c>
-      <c r="C26" s="71">
-        <f>B26/B$4</f>
-        <v/>
+      <c r="C26" s="66">
+        <f t="shared" si="0"/>
+        <v>8.1822202565236622E-3</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="24">
-      <c r="A27" s="44" t="inlineStr">
-        <is>
-          <t>Relacionados con la edificación</t>
-        </is>
-      </c>
-      <c r="B27" s="13" t="n">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="13">
         <v>818</v>
       </c>
-      <c r="C27" s="72">
-        <f>B27/B$4</f>
-        <v/>
+      <c r="C27" s="67">
+        <f t="shared" si="0"/>
+        <v>9.0446704997788591E-2</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="24">
-      <c r="A28" s="43" t="inlineStr">
-        <is>
-          <t>Relacionados con la electricidad</t>
-        </is>
-      </c>
-      <c r="B28" s="17" t="n">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="17">
         <v>37</v>
       </c>
-      <c r="C28" s="71">
-        <f>B28/B$4</f>
-        <v/>
+      <c r="C28" s="66">
+        <f t="shared" si="0"/>
+        <v>4.0911101282618311E-3</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="24">
-      <c r="A29" s="44" t="inlineStr">
-        <is>
-          <t>Gas (cortes, fugas)</t>
-        </is>
-      </c>
-      <c r="B29" s="13" t="n">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="13">
         <v>237</v>
       </c>
-      <c r="C29" s="72">
-        <f>B29/B$4</f>
-        <v/>
+      <c r="C29" s="67">
+        <f t="shared" si="0"/>
+        <v>2.6205218929677133E-2</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="24">
-      <c r="A30" s="43" t="inlineStr">
-        <is>
-          <t>Relacionados con himenópteros</t>
-        </is>
-      </c>
-      <c r="B30" s="17" t="n">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="17">
         <v>324</v>
       </c>
-      <c r="C30" s="71">
-        <f>B30/B$4</f>
-        <v/>
+      <c r="C30" s="66">
+        <f t="shared" si="0"/>
+        <v>3.5824856258292792E-2</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="24">
-      <c r="A31" s="44" t="inlineStr">
-        <is>
-          <t>Rescate de animales</t>
-        </is>
-      </c>
-      <c r="B31" s="13" t="n">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="13">
         <v>113</v>
       </c>
-      <c r="C31" s="72">
-        <f>B31/B$4</f>
-        <v/>
+      <c r="C31" s="67">
+        <f t="shared" si="0"/>
+        <v>1.2494471472799647E-2</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="24">
-      <c r="A32" s="43" t="inlineStr">
-        <is>
-          <t>Salvamento en ascensores</t>
-        </is>
-      </c>
-      <c r="B32" s="17" t="n">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="17">
         <v>518</v>
       </c>
-      <c r="C32" s="71">
-        <f>B32/B$4</f>
-        <v/>
+      <c r="C32" s="66">
+        <f t="shared" si="0"/>
+        <v>5.7275541795665637E-2</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="24">
-      <c r="A33" s="44" t="inlineStr">
-        <is>
-          <t>Atención a impedidos</t>
-        </is>
-      </c>
-      <c r="B33" s="13" t="n">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="13">
         <v>127</v>
       </c>
-      <c r="C33" s="72">
-        <f>B33/B$4</f>
-        <v/>
+      <c r="C33" s="67">
+        <f t="shared" si="0"/>
+        <v>1.4042459088898717E-2</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="24">
-      <c r="A34" s="43" t="inlineStr">
-        <is>
-          <t>Caidas en zanjas, pozos</t>
-        </is>
-      </c>
-      <c r="B34" s="17" t="n">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="17">
         <v>10</v>
       </c>
-      <c r="C34" s="71">
-        <f>B34/B$4</f>
-        <v/>
+      <c r="C34" s="66">
+        <f t="shared" si="0"/>
+        <v>1.1057054400707652E-3</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="24">
-      <c r="A35" s="44" t="inlineStr">
-        <is>
-          <t>Personas en riesgo, presuntos suicidas o precipitados</t>
-        </is>
-      </c>
-      <c r="B35" s="13" t="n">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="13">
         <v>180</v>
       </c>
-      <c r="C35" s="72">
-        <f>B35/B$4</f>
-        <v/>
+      <c r="C35" s="67">
+        <f t="shared" si="0"/>
+        <v>1.9902697921273773E-2</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="24">
-      <c r="A36" s="43" t="inlineStr">
-        <is>
-          <t>Salvamentos en medio acuático</t>
-        </is>
-      </c>
-      <c r="B36" s="17" t="n">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="17">
         <v>23</v>
       </c>
-      <c r="C36" s="71">
-        <f>B36/B$4</f>
-        <v/>
+      <c r="C36" s="66">
+        <f t="shared" si="0"/>
+        <v>2.5431225121627598E-3</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="24">
-      <c r="A37" s="44" t="inlineStr">
-        <is>
-          <t>Otros salvamentos</t>
-        </is>
-      </c>
-      <c r="B37" s="33" t="n">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="33">
         <v>141</v>
       </c>
-      <c r="C37" s="72">
-        <f>B37/B$4</f>
-        <v/>
+      <c r="C37" s="67">
+        <f t="shared" si="0"/>
+        <v>1.5590446704997788E-2</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="24">
-      <c r="A38" s="42" t="inlineStr">
-        <is>
-          <t>Mercancías peligrosas</t>
-        </is>
-      </c>
-      <c r="B38" s="48" t="n">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="48">
         <v>0</v>
       </c>
-      <c r="C38" s="69">
-        <f>B38/B$4</f>
-        <v/>
+      <c r="C38" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="24">
-      <c r="A39" s="41" t="inlineStr">
-        <is>
-          <t>Falsas alarmas</t>
-        </is>
-      </c>
-      <c r="B39" s="45" t="n">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="45">
         <v>86</v>
       </c>
-      <c r="C39" s="70">
-        <f>B39/B$4</f>
-        <v/>
+      <c r="C39" s="65">
+        <f t="shared" si="0"/>
+        <v>9.5090667846085795E-3</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="24">
-      <c r="A40" s="42" t="inlineStr">
-        <is>
-          <t>Asistencia técnica</t>
-        </is>
-      </c>
-      <c r="B40" s="48" t="n">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="48">
         <v>1224</v>
       </c>
-      <c r="C40" s="69">
-        <f>B40/B$4</f>
-        <v/>
+      <c r="C40" s="64">
+        <f t="shared" si="0"/>
+        <v>0.13533834586466165</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="24">
-      <c r="A41" s="44" t="inlineStr">
-        <is>
-          <t>Actividades divulgativas</t>
-        </is>
-      </c>
-      <c r="B41" s="13" t="n">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="13">
         <v>142</v>
       </c>
-      <c r="C41" s="72">
-        <f>B41/B$4</f>
-        <v/>
+      <c r="C41" s="67">
+        <f t="shared" si="0"/>
+        <v>1.5701017249004866E-2</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="24">
-      <c r="A42" s="43" t="inlineStr">
-        <is>
-          <t>Actividades preventivas</t>
-        </is>
-      </c>
-      <c r="B42" s="17" t="n">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="17">
         <v>706</v>
       </c>
-      <c r="C42" s="71">
-        <f>B42/B$4</f>
-        <v/>
+      <c r="C42" s="66">
+        <f t="shared" si="0"/>
+        <v>7.8062804068996017E-2</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="24">
-      <c r="A43" s="44" t="inlineStr">
-        <is>
-          <t>Verificación de columnas secas</t>
-        </is>
-      </c>
-      <c r="B43" s="13" t="n">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="13">
         <v>17</v>
       </c>
-      <c r="C43" s="72">
-        <f>B43/B$4</f>
-        <v/>
+      <c r="C43" s="67">
+        <f t="shared" si="0"/>
+        <v>1.8796992481203006E-3</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="24">
-      <c r="A44" s="43" t="inlineStr">
-        <is>
-          <t>Revisión de hidrantes</t>
-        </is>
-      </c>
-      <c r="B44" s="17" t="n">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="17">
         <v>248</v>
       </c>
-      <c r="C44" s="71">
-        <f>B44/B$4</f>
-        <v/>
+      <c r="C44" s="66">
+        <f t="shared" si="0"/>
+        <v>2.7421494913754976E-2</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="24">
-      <c r="A45" s="44" t="inlineStr">
-        <is>
-          <t>Inspecciones de edificaciones</t>
-        </is>
-      </c>
-      <c r="B45" s="13" t="n">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="13">
         <v>59</v>
       </c>
-      <c r="C45" s="72">
-        <f>B45/B$4</f>
-        <v/>
+      <c r="C45" s="67">
+        <f t="shared" si="0"/>
+        <v>6.5236620964175141E-3</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="24">
-      <c r="A46" s="43" t="inlineStr">
-        <is>
-          <t>Otras inspecciones</t>
-        </is>
-      </c>
-      <c r="B46" s="17" t="n">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="17">
         <v>52</v>
       </c>
-      <c r="C46" s="71">
-        <f>B46/B$4</f>
-        <v/>
+      <c r="C46" s="66">
+        <f t="shared" si="0"/>
+        <v>5.7496682883679791E-3</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="19" t="inlineStr">
-        <is>
-          <t>Nota: No se incluyen los servicios en el parque.</t>
-        </is>
-      </c>
-      <c r="B47" s="27" t="n"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="27"/>
     </row>
-    <row r="48">
-      <c r="A48" s="19" t="inlineStr">
-        <is>
-          <t>Fuente: Departamento de Bomberos, Prevención, Intervención en Emergencias y Protección Civil. Ayuntamiento de València</t>
-        </is>
-      </c>
-      <c r="B48" s="27" t="n"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="27"/>
     </row>
-    <row r="49">
-      <c r="B49" s="27" t="n"/>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="27"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="E4:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="31" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="31" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="31" min="3" max="3"/>
-    <col width="14.28515625" customWidth="1" style="31" min="4" max="4"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" style="31" min="5" max="5"/>
-    <col width="11.42578125" customWidth="1" style="31" min="6" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="E4" s="32" t="n"/>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="32"/>
     </row>
-    <row r="5">
-      <c r="E5" s="32" t="n"/>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="32"/>
     </row>
-    <row r="6">
-      <c r="E6" s="32" t="n"/>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="32"/>
     </row>
-    <row r="7">
-      <c r="E7" s="32" t="n"/>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="32"/>
     </row>
-    <row r="8">
-      <c r="E8" s="32" t="n"/>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="32"/>
     </row>
-    <row r="9">
-      <c r="E9" s="35" t="n"/>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja26">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20.5703125" customWidth="1" style="24" min="1" max="1"/>
-    <col width="6.85546875" customWidth="1" style="24" min="2" max="14"/>
-    <col width="11.42578125" customWidth="1" style="24" min="15" max="16384"/>
+    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="6.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="24">
-      <c r="A1" s="68" t="inlineStr">
-        <is>
-          <t>3. Servicios según tipos principales y mes. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="34" t="n"/>
-      <c r="C1" s="40" t="n"/>
-      <c r="D1" s="34" t="n"/>
-      <c r="E1" s="34" t="n"/>
-      <c r="F1" s="34" t="n"/>
-      <c r="G1" s="34" t="n"/>
-      <c r="H1" s="34" t="n"/>
-      <c r="I1" s="34" t="n"/>
-      <c r="J1" s="34" t="n"/>
-      <c r="K1" s="34" t="n"/>
-      <c r="L1" s="34" t="n"/>
-      <c r="M1" s="34" t="n"/>
-      <c r="N1" s="34" t="n"/>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2">
-      <c r="A2" s="34" t="n"/>
-      <c r="B2" s="34" t="n"/>
-      <c r="C2" s="34" t="n"/>
-      <c r="D2" s="34" t="n"/>
-      <c r="E2" s="59" t="n"/>
-      <c r="F2" s="59" t="n"/>
-      <c r="G2" s="34" t="n"/>
-      <c r="H2" s="34" t="n"/>
-      <c r="I2" s="34" t="n"/>
-      <c r="J2" s="34" t="n"/>
-      <c r="K2" s="34" t="n"/>
-      <c r="L2" s="34" t="n"/>
-      <c r="M2" s="34" t="n"/>
-      <c r="N2" s="34" t="n"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="24">
-      <c r="A3" s="53" t="n"/>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="23" t="inlineStr">
-        <is>
-          <t>Ene</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
-      </c>
-      <c r="E3" s="23" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
-      </c>
-      <c r="F3" s="23" t="inlineStr">
-        <is>
-          <t>Abr</t>
-        </is>
-      </c>
-      <c r="G3" s="23" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-      <c r="H3" s="23" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
-      </c>
-      <c r="I3" s="23" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
-      </c>
-      <c r="J3" s="23" t="inlineStr">
-        <is>
-          <t>Ago</t>
-        </is>
-      </c>
-      <c r="K3" s="23" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
-      </c>
-      <c r="L3" s="23" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
-      </c>
-      <c r="M3" s="23" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-      <c r="N3" s="23" t="inlineStr">
-        <is>
-          <t>Dic</t>
-        </is>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53"/>
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="24">
-      <c r="A4" s="57" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="58">
         <f>SUM(B5:B9)</f>
-        <v/>
+        <v>9044</v>
       </c>
       <c r="C4" s="58">
-        <f>SUM(C5:C9)</f>
-        <v/>
+        <f t="shared" ref="C4:N4" si="0">SUM(C5:C9)</f>
+        <v>672</v>
       </c>
       <c r="D4" s="58">
-        <f>SUM(D5:D9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>555</v>
       </c>
       <c r="E4" s="58">
-        <f>SUM(E5:E9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1029</v>
       </c>
       <c r="F4" s="58">
-        <f>SUM(F5:F9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>566</v>
       </c>
       <c r="G4" s="58">
-        <f>SUM(G5:G9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>672</v>
       </c>
       <c r="H4" s="58">
-        <f>SUM(H5:H9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>724</v>
       </c>
       <c r="I4" s="58">
-        <f>SUM(I5:I9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>968</v>
       </c>
       <c r="J4" s="58">
-        <f>SUM(J5:J9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>870</v>
       </c>
       <c r="K4" s="58">
-        <f>SUM(K5:K9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>792</v>
       </c>
       <c r="L4" s="58">
-        <f>SUM(L5:L9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>696</v>
       </c>
       <c r="M4" s="58">
-        <f>SUM(M5:M9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>803</v>
       </c>
       <c r="N4" s="58">
-        <f>SUM(N5:N9)</f>
-        <v/>
-      </c>
-      <c r="O4" s="27" t="n"/>
+        <f t="shared" si="0"/>
+        <v>697</v>
+      </c>
+      <c r="O4" s="27"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="24">
-      <c r="A5" s="54" t="inlineStr">
-        <is>
-          <t>Incendios</t>
-        </is>
-      </c>
-      <c r="B5" s="17" t="n">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17">
         <v>2051</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="17">
         <v>155</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>142</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="17">
         <v>347</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="17">
         <v>142</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="17">
         <v>154</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="17">
         <v>143</v>
       </c>
-      <c r="I5" s="17" t="n">
+      <c r="I5" s="17">
         <v>138</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="17">
         <v>157</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="17">
         <v>121</v>
       </c>
-      <c r="L5" s="17" t="n">
+      <c r="L5" s="17">
         <v>193</v>
       </c>
-      <c r="M5" s="17" t="n">
+      <c r="M5" s="17">
         <v>176</v>
       </c>
-      <c r="N5" s="17" t="n">
+      <c r="N5" s="17">
         <v>183</v>
       </c>
-      <c r="O5" s="27" t="n"/>
+      <c r="O5" s="27"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="24">
-      <c r="A6" s="52" t="inlineStr">
-        <is>
-          <t>Salvamentos</t>
-        </is>
-      </c>
-      <c r="B6" s="56" t="n">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="56">
         <v>5683</v>
       </c>
-      <c r="C6" s="56" t="n">
+      <c r="C6" s="56">
         <v>466</v>
       </c>
-      <c r="D6" s="56" t="n">
+      <c r="D6" s="56">
         <v>315</v>
       </c>
-      <c r="E6" s="56" t="n">
+      <c r="E6" s="56">
         <v>399</v>
       </c>
-      <c r="F6" s="56" t="n">
+      <c r="F6" s="56">
         <v>351</v>
       </c>
-      <c r="G6" s="56" t="n">
+      <c r="G6" s="56">
         <v>459</v>
       </c>
-      <c r="H6" s="56" t="n">
+      <c r="H6" s="56">
         <v>490</v>
       </c>
-      <c r="I6" s="56" t="n">
+      <c r="I6" s="56">
         <v>667</v>
       </c>
-      <c r="J6" s="56" t="n">
+      <c r="J6" s="56">
         <v>559</v>
       </c>
-      <c r="K6" s="56" t="n">
+      <c r="K6" s="56">
         <v>583</v>
       </c>
-      <c r="L6" s="56" t="n">
+      <c r="L6" s="56">
         <v>418</v>
       </c>
-      <c r="M6" s="56" t="n">
+      <c r="M6" s="56">
         <v>549</v>
       </c>
-      <c r="N6" s="56" t="n">
+      <c r="N6" s="56">
         <v>427</v>
       </c>
-      <c r="O6" s="27" t="n"/>
+      <c r="O6" s="27"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="24">
-      <c r="A7" s="54" t="inlineStr">
-        <is>
-          <t>Asistencia técnica</t>
-        </is>
-      </c>
-      <c r="B7" s="17" t="n">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="17">
         <v>1224</v>
       </c>
-      <c r="C7" s="36" t="n">
+      <c r="C7" s="36">
         <v>44</v>
       </c>
-      <c r="D7" s="36" t="n">
+      <c r="D7" s="36">
         <v>91</v>
       </c>
-      <c r="E7" s="36" t="n">
+      <c r="E7" s="36">
         <v>276</v>
       </c>
-      <c r="F7" s="36" t="n">
+      <c r="F7" s="36">
         <v>70</v>
       </c>
-      <c r="G7" s="36" t="n">
+      <c r="G7" s="36">
         <v>50</v>
       </c>
-      <c r="H7" s="36" t="n">
+      <c r="H7" s="36">
         <v>81</v>
       </c>
-      <c r="I7" s="36" t="n">
+      <c r="I7" s="36">
         <v>155</v>
       </c>
-      <c r="J7" s="36" t="n">
+      <c r="J7" s="36">
         <v>142</v>
       </c>
-      <c r="K7" s="36" t="n">
+      <c r="K7" s="36">
         <v>86</v>
       </c>
-      <c r="L7" s="36" t="n">
+      <c r="L7" s="36">
         <v>72</v>
       </c>
-      <c r="M7" s="36" t="n">
+      <c r="M7" s="36">
         <v>74</v>
       </c>
-      <c r="N7" s="36" t="n">
+      <c r="N7" s="36">
         <v>83</v>
       </c>
-      <c r="O7" s="27" t="n"/>
+      <c r="O7" s="27"/>
     </row>
-    <row r="8" ht="15" customHeight="1" s="24">
-      <c r="A8" s="52" t="inlineStr">
-        <is>
-          <t>Falsas alarmas</t>
-        </is>
-      </c>
-      <c r="B8" s="56" t="n">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="56">
         <v>86</v>
       </c>
-      <c r="C8" s="40" t="n">
+      <c r="C8" s="40">
         <v>7</v>
       </c>
-      <c r="D8" s="40" t="n">
+      <c r="D8" s="40">
         <v>7</v>
       </c>
-      <c r="E8" s="40" t="n">
+      <c r="E8" s="40">
         <v>7</v>
       </c>
-      <c r="F8" s="40" t="n">
+      <c r="F8" s="40">
         <v>3</v>
       </c>
-      <c r="G8" s="40" t="n">
+      <c r="G8" s="40">
         <v>9</v>
       </c>
-      <c r="H8" s="40" t="n">
+      <c r="H8" s="40">
         <v>10</v>
       </c>
-      <c r="I8" s="40" t="n">
+      <c r="I8" s="40">
         <v>8</v>
       </c>
-      <c r="J8" s="40" t="n">
+      <c r="J8" s="40">
         <v>12</v>
       </c>
-      <c r="K8" s="40" t="n">
+      <c r="K8" s="40">
         <v>2</v>
       </c>
-      <c r="L8" s="40" t="n">
+      <c r="L8" s="40">
         <v>13</v>
       </c>
-      <c r="M8" s="40" t="n">
+      <c r="M8" s="40">
         <v>4</v>
       </c>
-      <c r="N8" s="40" t="n">
+      <c r="N8" s="40">
         <v>4</v>
       </c>
-      <c r="O8" s="27" t="n"/>
+      <c r="O8" s="27"/>
     </row>
-    <row r="9" ht="15" customHeight="1" s="24">
-      <c r="A9" s="54" t="inlineStr">
-        <is>
-          <t>Mercancías peligrosas</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="n">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="36">
         <v>0</v>
       </c>
-      <c r="C9" s="36" t="n">
+      <c r="C9" s="36">
         <v>0</v>
       </c>
-      <c r="D9" s="36" t="n">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="36" t="n">
+      <c r="E9" s="36">
         <v>0</v>
       </c>
-      <c r="F9" s="36" t="n">
+      <c r="F9" s="36">
         <v>0</v>
       </c>
-      <c r="G9" s="36" t="n">
+      <c r="G9" s="36">
         <v>0</v>
       </c>
-      <c r="H9" s="36" t="n">
+      <c r="H9" s="36">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="n">
+      <c r="I9" s="36">
         <v>0</v>
       </c>
-      <c r="J9" s="36" t="n">
+      <c r="J9" s="36">
         <v>0</v>
       </c>
-      <c r="K9" s="36" t="n">
+      <c r="K9" s="36">
         <v>0</v>
       </c>
-      <c r="L9" s="36" t="n">
+      <c r="L9" s="36">
         <v>0</v>
       </c>
-      <c r="M9" s="36" t="n">
+      <c r="M9" s="36">
         <v>0</v>
       </c>
-      <c r="N9" s="36" t="n">
+      <c r="N9" s="36">
         <v>0</v>
       </c>
-      <c r="O9" s="27" t="n"/>
+      <c r="O9" s="27"/>
     </row>
-    <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: No se incluyen los servicios en el parque.</t>
-        </is>
-      </c>
-      <c r="C10" s="28" t="n"/>
-      <c r="D10" s="28" t="n"/>
-      <c r="E10" s="28" t="n"/>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="28" t="n"/>
-      <c r="H10" s="28" t="n"/>
-      <c r="I10" s="28" t="n"/>
-      <c r="J10" s="28" t="n"/>
-      <c r="K10" s="28" t="n"/>
-      <c r="L10" s="28" t="n"/>
-      <c r="M10" s="28" t="n"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
-    <row r="11">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>Fuente: Departamento de Bomberos, Prevención, Intervención en Emergencias y Protección Civil. Ayuntamiento de València</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="n"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
-    <row r="12">
-      <c r="B12" s="20" t="n"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="20"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
     </row>
-    <row r="16">
-      <c r="N16" s="39" t="n"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N13" s="24"/>
     </row>
-    <row r="24">
-      <c r="D24" s="39" t="n"/>
-      <c r="E24" s="39" t="n"/>
-      <c r="F24" s="39" t="n"/>
-      <c r="G24" s="39" t="n"/>
-      <c r="H24" s="39" t="n"/>
-      <c r="I24" s="39" t="n"/>
-      <c r="J24" s="39" t="n"/>
-      <c r="K24" s="39" t="n"/>
-      <c r="L24" s="39" t="n"/>
-      <c r="M24" s="39" t="n"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="24"/>
     </row>
-    <row r="25">
-      <c r="B25" s="29" t="n"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="39"/>
     </row>
-    <row r="26">
-      <c r="B26" s="29" t="n"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
     </row>
-    <row r="27">
-      <c r="B27" s="29" t="n"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
-    <row r="28">
-      <c r="A28" s="29" t="n"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
-    <row r="29">
-      <c r="A29" s="29" t="n"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
     </row>
-    <row r="30">
-      <c r="B30" s="29" t="n"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
     </row>
-    <row r="31">
-      <c r="A31" s="29" t="n"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="24"/>
     </row>
-    <row r="32">
-      <c r="B32" s="29" t="n"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="24"/>
     </row>
-    <row r="33">
-      <c r="B33" s="29" t="n"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="24"/>
     </row>
-    <row r="36">
-      <c r="B36" s="29" t="n"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="29"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
     </row>
-    <row r="37">
-      <c r="B37" s="29" t="n"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="29"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
-    <row r="38">
-      <c r="B38" s="29" t="n"/>
-      <c r="N38" s="29" t="n"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="29"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
     </row>
-    <row r="39">
-      <c r="A39" s="29" t="n"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
     </row>
-    <row r="40">
-      <c r="B40" s="29" t="n"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
     </row>
-    <row r="41">
-      <c r="B41" s="29" t="n"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
     </row>
-    <row r="42">
-      <c r="A42" s="29" t="n"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="N31" s="24"/>
     </row>
-    <row r="43">
-      <c r="A43" s="29" t="n"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
     </row>
-    <row r="44">
-      <c r="B44" s="29" t="n"/>
-      <c r="C44" s="29" t="n"/>
-      <c r="D44" s="29" t="n"/>
-      <c r="E44" s="29" t="n"/>
-      <c r="F44" s="29" t="n"/>
-      <c r="G44" s="29" t="n"/>
-      <c r="H44" s="29" t="n"/>
-      <c r="I44" s="29" t="n"/>
-      <c r="J44" s="29" t="n"/>
-      <c r="K44" s="29" t="n"/>
-      <c r="L44" s="29" t="n"/>
-      <c r="M44" s="29" t="n"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="24"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="24"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="24"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="89" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" style="24" min="1" max="1"/>
-    <col width="9.7109375" customWidth="1" style="24" min="2" max="9"/>
-    <col width="11.42578125" customWidth="1" style="24" min="10" max="16384"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="24">
-      <c r="A1" s="68" t="inlineStr">
-        <is>
-          <t>4. Servicios según tipos principales y día de la semana. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="34" t="n"/>
-      <c r="C1" s="40" t="n"/>
-      <c r="D1" s="34" t="n"/>
-      <c r="E1" s="34" t="n"/>
-      <c r="F1" s="34" t="n"/>
-      <c r="G1" s="34" t="n"/>
-      <c r="H1" s="34" t="n"/>
-      <c r="I1" s="34" t="n"/>
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="24">
-      <c r="A2" s="34" t="n"/>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="21" t="n"/>
-      <c r="D2" s="21" t="n"/>
-      <c r="E2" s="21" t="n"/>
-      <c r="F2" s="21" t="n"/>
-      <c r="G2" s="21" t="n"/>
-      <c r="H2" s="21" t="n"/>
-      <c r="I2" s="21" t="n"/>
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="24">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="49" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="23" t="inlineStr">
-        <is>
-          <t>Lunes</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="inlineStr">
-        <is>
-          <t>Martes</t>
-        </is>
-      </c>
-      <c r="E3" s="23" t="inlineStr">
-        <is>
-          <t>Miércoles</t>
-        </is>
-      </c>
-      <c r="F3" s="23" t="inlineStr">
-        <is>
-          <t>Jueves</t>
-        </is>
-      </c>
-      <c r="G3" s="23" t="inlineStr">
-        <is>
-          <t>Viernes</t>
-        </is>
-      </c>
-      <c r="H3" s="23" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
-      <c r="I3" s="23" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A4" s="59" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="4" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="60">
         <f>SUM(B5:B9)</f>
-        <v/>
+        <v>9044</v>
       </c>
       <c r="C4" s="60">
-        <f>SUM(C5:C9)</f>
-        <v/>
+        <f t="shared" ref="C4:I4" si="0">SUM(C5:C9)</f>
+        <v>1224</v>
       </c>
       <c r="D4" s="60">
-        <f>SUM(D5:D9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1349</v>
       </c>
       <c r="E4" s="60">
-        <f>SUM(E5:E9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1173</v>
       </c>
       <c r="F4" s="60">
-        <f>SUM(F5:F9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1224</v>
       </c>
       <c r="G4" s="60">
-        <f>SUM(G5:G9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1364</v>
       </c>
       <c r="H4" s="60">
-        <f>SUM(H5:H9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1273</v>
       </c>
       <c r="I4" s="60">
-        <f>SUM(I5:I9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1437</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="24">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t>Incendios</t>
-        </is>
-      </c>
-      <c r="B5" s="17" t="n">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17">
         <v>2051</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="17">
         <v>276</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="17">
         <v>266</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="17">
         <v>273</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="17">
         <v>259</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="17">
         <v>300</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="17">
         <v>327</v>
       </c>
-      <c r="I5" s="17" t="n">
+      <c r="I5" s="17">
         <v>350</v>
       </c>
     </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A6" s="61" t="inlineStr">
-        <is>
-          <t>Salvamentos</t>
-        </is>
-      </c>
-      <c r="B6" s="56" t="n">
+    <row r="6" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="56">
         <v>5683</v>
       </c>
-      <c r="C6" s="56" t="n">
+      <c r="C6" s="56">
         <v>791</v>
       </c>
-      <c r="D6" s="56" t="n">
+      <c r="D6" s="56">
         <v>873</v>
       </c>
-      <c r="E6" s="56" t="n">
+      <c r="E6" s="56">
         <v>744</v>
       </c>
-      <c r="F6" s="56" t="n">
+      <c r="F6" s="56">
         <v>780</v>
       </c>
-      <c r="G6" s="56" t="n">
+      <c r="G6" s="56">
         <v>875</v>
       </c>
-      <c r="H6" s="56" t="n">
+      <c r="H6" s="56">
         <v>784</v>
       </c>
-      <c r="I6" s="56" t="n">
+      <c r="I6" s="56">
         <v>836</v>
       </c>
     </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>Asistencia técnica</t>
-        </is>
-      </c>
-      <c r="B7" s="17" t="n">
+    <row r="7" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="17">
         <v>1224</v>
       </c>
-      <c r="C7" s="36" t="n">
+      <c r="C7" s="36">
         <v>146</v>
       </c>
-      <c r="D7" s="36" t="n">
+      <c r="D7" s="36">
         <v>193</v>
       </c>
-      <c r="E7" s="36" t="n">
+      <c r="E7" s="36">
         <v>144</v>
       </c>
-      <c r="F7" s="36" t="n">
+      <c r="F7" s="36">
         <v>175</v>
       </c>
-      <c r="G7" s="36" t="n">
+      <c r="G7" s="36">
         <v>178</v>
       </c>
-      <c r="H7" s="36" t="n">
+      <c r="H7" s="36">
         <v>148</v>
       </c>
-      <c r="I7" s="36" t="n">
+      <c r="I7" s="36">
         <v>240</v>
       </c>
     </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A8" s="61" t="inlineStr">
-        <is>
-          <t>Falsas alarmas</t>
-        </is>
-      </c>
-      <c r="B8" s="56" t="n">
+    <row r="8" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="56">
         <v>86</v>
       </c>
-      <c r="C8" s="40" t="n">
+      <c r="C8" s="40">
         <v>11</v>
       </c>
-      <c r="D8" s="40" t="n">
+      <c r="D8" s="40">
         <v>17</v>
       </c>
-      <c r="E8" s="40" t="n">
+      <c r="E8" s="40">
         <v>12</v>
       </c>
-      <c r="F8" s="40" t="n">
+      <c r="F8" s="40">
         <v>10</v>
       </c>
-      <c r="G8" s="40" t="n">
+      <c r="G8" s="40">
         <v>11</v>
       </c>
-      <c r="H8" s="40" t="n">
+      <c r="H8" s="40">
         <v>14</v>
       </c>
-      <c r="I8" s="40" t="n">
+      <c r="I8" s="40">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t>Mercancías peligrosas</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="n">
+    <row r="9" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="36">
         <v>0</v>
       </c>
-      <c r="C9" s="36" t="n">
+      <c r="C9" s="36">
         <v>0</v>
       </c>
-      <c r="D9" s="36" t="n">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="36" t="n">
+      <c r="E9" s="36">
         <v>0</v>
       </c>
-      <c r="F9" s="36" t="n">
+      <c r="F9" s="36">
         <v>0</v>
       </c>
-      <c r="G9" s="36" t="n">
+      <c r="G9" s="36">
         <v>0</v>
       </c>
-      <c r="H9" s="36" t="n">
+      <c r="H9" s="36">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="n">
+      <c r="I9" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: No se incluyen los servicios en el parque.</t>
-        </is>
-      </c>
-      <c r="B10" s="51" t="n"/>
-      <c r="D10" s="28" t="n"/>
-      <c r="E10" s="28" t="n"/>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="28" t="n"/>
-      <c r="H10" s="28" t="n"/>
-      <c r="I10" s="28" t="n"/>
-      <c r="J10" s="28" t="n"/>
-      <c r="K10" s="28" t="n"/>
-      <c r="L10" s="28" t="n"/>
-      <c r="M10" s="28" t="n"/>
-      <c r="N10" s="28" t="n"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
     </row>
-    <row r="11">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>Fuente: Departamento de Bomberos, Prevención, Intervención en Emergencias y Protección Civil. Ayuntamiento de València</t>
-        </is>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="96" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" style="24" min="1" max="1"/>
-    <col width="10.85546875" customWidth="1" style="24" min="2" max="4"/>
-    <col width="12.5703125" customWidth="1" style="24" min="5" max="5"/>
-    <col width="11.28515625" customWidth="1" style="24" min="6" max="6"/>
-    <col width="12.5703125" customWidth="1" style="24" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" style="24" min="8" max="16384"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="24">
-      <c r="A1" s="68" t="inlineStr">
-        <is>
-          <t>5. Servicios según tipos principales y distrito. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="34" t="n"/>
-      <c r="C1" s="40" t="n"/>
-      <c r="D1" s="34" t="n"/>
-      <c r="E1" s="34" t="n"/>
-      <c r="F1" s="34" t="n"/>
-      <c r="G1" s="34" t="n"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
-    <row r="2" ht="14.1" customHeight="1" s="24">
-      <c r="A2" s="34" t="n"/>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="21" t="n"/>
-      <c r="D2" s="21" t="n"/>
-      <c r="E2" s="21" t="n"/>
-      <c r="F2" s="21" t="n"/>
-      <c r="G2" s="21" t="n"/>
+    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
-    <row r="3" ht="28.5" customHeight="1" s="24">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="62" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="63" t="inlineStr">
-        <is>
-          <t>Incendios</t>
-        </is>
-      </c>
-      <c r="D3" s="63" t="inlineStr">
-        <is>
-          <t>Salvamentos</t>
-        </is>
-      </c>
-      <c r="E3" s="63" t="inlineStr">
-        <is>
-          <t>Asistencia técnica</t>
-        </is>
-      </c>
-      <c r="F3" s="63" t="inlineStr">
-        <is>
-          <t>Falsas alarmas</t>
-        </is>
-      </c>
-      <c r="G3" s="63" t="inlineStr">
-        <is>
-          <t>Mercancías peligrosas</t>
-        </is>
+    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A4" s="59" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="60" t="n">
+    <row r="4" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60">
         <v>9044</v>
       </c>
-      <c r="C4" s="60" t="n">
+      <c r="C4" s="60">
         <v>2051</v>
       </c>
-      <c r="D4" s="60" t="n">
+      <c r="D4" s="60">
         <v>5683</v>
       </c>
-      <c r="E4" s="60" t="n">
+      <c r="E4" s="60">
         <v>1224</v>
       </c>
-      <c r="F4" s="60" t="n">
+      <c r="F4" s="60">
         <v>86</v>
       </c>
-      <c r="G4" s="60" t="n">
+      <c r="G4" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="24">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="36" t="n">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="36">
         <v>620</v>
       </c>
-      <c r="C5" s="36" t="n">
+      <c r="C5" s="36">
         <v>123</v>
       </c>
-      <c r="D5" s="36" t="n">
+      <c r="D5" s="36">
         <v>391</v>
       </c>
-      <c r="E5" s="36" t="n">
+      <c r="E5" s="36">
         <v>101</v>
       </c>
-      <c r="F5" s="36" t="n">
+      <c r="F5" s="36">
         <v>5</v>
       </c>
-      <c r="G5" s="36" t="n">
+      <c r="G5" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A6" s="61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="40" t="n">
+    <row r="6" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="22">
         <v>479</v>
       </c>
-      <c r="C6" s="40" t="n">
+      <c r="C6" s="22">
         <v>91</v>
       </c>
-      <c r="D6" s="40" t="n">
+      <c r="D6" s="22">
         <v>359</v>
       </c>
-      <c r="E6" s="40" t="n">
+      <c r="E6" s="22">
         <v>24</v>
       </c>
-      <c r="F6" s="40" t="n">
+      <c r="F6" s="22">
         <v>5</v>
       </c>
-      <c r="G6" s="40" t="n">
+      <c r="G6" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="36" t="n">
+    <row r="7" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="36">
         <v>520</v>
       </c>
-      <c r="C7" s="36" t="n">
+      <c r="C7" s="36">
         <v>113</v>
       </c>
-      <c r="D7" s="36" t="n">
+      <c r="D7" s="36">
         <v>386</v>
       </c>
-      <c r="E7" s="36" t="n">
+      <c r="E7" s="36">
         <v>15</v>
       </c>
-      <c r="F7" s="36" t="n">
+      <c r="F7" s="36">
         <v>6</v>
       </c>
-      <c r="G7" s="36" t="n">
+      <c r="G7" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A8" s="61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="40" t="n">
+    <row r="8" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="22">
         <v>398</v>
       </c>
-      <c r="C8" s="40" t="n">
+      <c r="C8" s="22">
         <v>85</v>
       </c>
-      <c r="D8" s="40" t="n">
+      <c r="D8" s="22">
         <v>263</v>
       </c>
-      <c r="E8" s="40" t="n">
+      <c r="E8" s="22">
         <v>47</v>
       </c>
-      <c r="F8" s="40" t="n">
+      <c r="F8" s="22">
         <v>3</v>
       </c>
-      <c r="G8" s="40" t="n">
+      <c r="G8" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="n">
+    <row r="9" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="36">
         <v>428</v>
       </c>
-      <c r="C9" s="36" t="n">
+      <c r="C9" s="36">
         <v>79</v>
       </c>
-      <c r="D9" s="36" t="n">
+      <c r="D9" s="36">
         <v>325</v>
       </c>
-      <c r="E9" s="36" t="n">
+      <c r="E9" s="36">
         <v>21</v>
       </c>
-      <c r="F9" s="36" t="n">
+      <c r="F9" s="36">
         <v>3</v>
       </c>
-      <c r="G9" s="36" t="n">
+      <c r="G9" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="24">
-      <c r="A10" s="61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="40" t="n">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="22">
         <v>325</v>
       </c>
-      <c r="C10" s="40" t="n">
+      <c r="C10" s="22">
         <v>56</v>
       </c>
-      <c r="D10" s="40" t="n">
+      <c r="D10" s="22">
         <v>238</v>
       </c>
-      <c r="E10" s="40" t="n">
+      <c r="E10" s="22">
         <v>28</v>
       </c>
-      <c r="F10" s="40" t="n">
+      <c r="F10" s="22">
         <v>3</v>
       </c>
-      <c r="G10" s="40" t="n">
+      <c r="G10" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="36" t="n">
+    <row r="11" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="36">
         <v>498</v>
       </c>
-      <c r="C11" s="36" t="n">
+      <c r="C11" s="36">
         <v>104</v>
       </c>
-      <c r="D11" s="36" t="n">
+      <c r="D11" s="36">
         <v>370</v>
       </c>
-      <c r="E11" s="36" t="n">
+      <c r="E11" s="36">
         <v>19</v>
       </c>
-      <c r="F11" s="36" t="n">
+      <c r="F11" s="36">
         <v>5</v>
       </c>
-      <c r="G11" s="36" t="n">
+      <c r="G11" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A12" s="61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="40" t="n">
+    <row r="12" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="22">
         <v>404</v>
       </c>
-      <c r="C12" s="40" t="n">
+      <c r="C12" s="22">
         <v>94</v>
       </c>
-      <c r="D12" s="40" t="n">
+      <c r="D12" s="22">
         <v>295</v>
       </c>
-      <c r="E12" s="40" t="n">
+      <c r="E12" s="22">
         <v>13</v>
       </c>
-      <c r="F12" s="40" t="n">
+      <c r="F12" s="22">
         <v>2</v>
       </c>
-      <c r="G12" s="40" t="n">
+      <c r="G12" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="36" t="n">
+    <row r="13" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="36">
         <v>424</v>
       </c>
-      <c r="C13" s="36" t="n">
+      <c r="C13" s="36">
         <v>104</v>
       </c>
-      <c r="D13" s="36" t="n">
+      <c r="D13" s="36">
         <v>313</v>
       </c>
-      <c r="E13" s="36" t="n">
+      <c r="E13" s="36">
         <v>4</v>
       </c>
-      <c r="F13" s="36" t="n">
+      <c r="F13" s="36">
         <v>3</v>
       </c>
-      <c r="G13" s="36" t="n">
+      <c r="G13" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="24">
-      <c r="A14" s="61" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="40" t="n">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="22">
         <v>852</v>
       </c>
-      <c r="C14" s="40" t="n">
+      <c r="C14" s="22">
         <v>210</v>
       </c>
-      <c r="D14" s="40" t="n">
+      <c r="D14" s="22">
         <v>574</v>
       </c>
-      <c r="E14" s="40" t="n">
+      <c r="E14" s="22">
         <v>64</v>
       </c>
-      <c r="F14" s="40" t="n">
+      <c r="F14" s="22">
         <v>4</v>
       </c>
-      <c r="G14" s="40" t="n">
+      <c r="G14" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="36" t="n">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="36">
         <v>730</v>
       </c>
-      <c r="C15" s="36" t="n">
+      <c r="C15" s="36">
         <v>190</v>
       </c>
-      <c r="D15" s="36" t="n">
+      <c r="D15" s="36">
         <v>477</v>
       </c>
-      <c r="E15" s="36" t="n">
+      <c r="E15" s="36">
         <v>55</v>
       </c>
-      <c r="F15" s="36" t="n">
+      <c r="F15" s="36">
         <v>8</v>
       </c>
-      <c r="G15" s="36" t="n">
+      <c r="G15" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A16" s="61" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="40" t="n">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="22">
         <v>508</v>
       </c>
-      <c r="C16" s="40" t="n">
+      <c r="C16" s="22">
         <v>111</v>
       </c>
-      <c r="D16" s="40" t="n">
+      <c r="D16" s="22">
         <v>374</v>
       </c>
-      <c r="E16" s="40" t="n">
+      <c r="E16" s="22">
         <v>16</v>
       </c>
-      <c r="F16" s="40" t="n">
+      <c r="F16" s="22">
         <v>7</v>
       </c>
-      <c r="G16" s="40" t="n">
+      <c r="G16" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="36" t="n">
+    <row r="17" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="36">
         <v>379</v>
       </c>
-      <c r="C17" s="36" t="n">
+      <c r="C17" s="36">
         <v>101</v>
       </c>
-      <c r="D17" s="36" t="n">
+      <c r="D17" s="36">
         <v>268</v>
       </c>
-      <c r="E17" s="36" t="n">
+      <c r="E17" s="36">
         <v>6</v>
       </c>
-      <c r="F17" s="36" t="n">
+      <c r="F17" s="36">
         <v>4</v>
       </c>
-      <c r="G17" s="36" t="n">
+      <c r="G17" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A18" s="61" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="40" t="n">
+    <row r="18" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="22">
         <v>230</v>
       </c>
-      <c r="C18" s="40" t="n">
+      <c r="C18" s="22">
         <v>71</v>
       </c>
-      <c r="D18" s="40" t="n">
+      <c r="D18" s="22">
         <v>148</v>
       </c>
-      <c r="E18" s="40" t="n">
+      <c r="E18" s="22">
         <v>10</v>
       </c>
-      <c r="F18" s="40" t="n">
+      <c r="F18" s="22">
         <v>1</v>
       </c>
-      <c r="G18" s="40" t="n">
+      <c r="G18" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="24">
-      <c r="A19" s="16" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="36" t="n">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="36">
         <v>381</v>
       </c>
-      <c r="C19" s="36" t="n">
+      <c r="C19" s="36">
         <v>100</v>
       </c>
-      <c r="D19" s="36" t="n">
+      <c r="D19" s="36">
         <v>264</v>
       </c>
-      <c r="E19" s="36" t="n">
+      <c r="E19" s="36">
         <v>10</v>
       </c>
-      <c r="F19" s="36" t="n">
+      <c r="F19" s="36">
         <v>7</v>
       </c>
-      <c r="G19" s="36" t="n">
+      <c r="G19" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A20" s="61" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="40" t="n">
+    <row r="20" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="22">
         <v>324</v>
       </c>
-      <c r="C20" s="40" t="n">
+      <c r="C20" s="22">
         <v>71</v>
       </c>
-      <c r="D20" s="40" t="n">
+      <c r="D20" s="22">
         <v>238</v>
       </c>
-      <c r="E20" s="40" t="n">
+      <c r="E20" s="22">
         <v>12</v>
       </c>
-      <c r="F20" s="40" t="n">
+      <c r="F20" s="22">
         <v>3</v>
       </c>
-      <c r="G20" s="40" t="n">
+      <c r="G20" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A21" s="16" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="36" t="n">
+    <row r="21" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="36">
         <v>82</v>
       </c>
-      <c r="C21" s="36" t="n">
+      <c r="C21" s="36">
         <v>30</v>
       </c>
-      <c r="D21" s="36" t="n">
+      <c r="D21" s="36">
         <v>40</v>
       </c>
-      <c r="E21" s="36" t="n">
+      <c r="E21" s="36">
         <v>9</v>
       </c>
-      <c r="F21" s="36" t="n">
+      <c r="F21" s="36">
         <v>3</v>
       </c>
-      <c r="G21" s="36" t="n">
+      <c r="G21" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A22" s="61" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="40" t="n">
+    <row r="22" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="22">
         <v>158</v>
       </c>
-      <c r="C22" s="40" t="n">
+      <c r="C22" s="22">
         <v>42</v>
       </c>
-      <c r="D22" s="40" t="n">
+      <c r="D22" s="22">
         <v>90</v>
       </c>
-      <c r="E22" s="40" t="n">
+      <c r="E22" s="22">
         <v>25</v>
       </c>
-      <c r="F22" s="40" t="n">
+      <c r="F22" s="22">
         <v>1</v>
       </c>
-      <c r="G22" s="40" t="n">
+      <c r="G22" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A23" s="16" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="36" t="n">
+    <row r="23" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="36">
         <v>590</v>
       </c>
-      <c r="C23" s="36" t="n">
+      <c r="C23" s="36">
         <v>193</v>
       </c>
-      <c r="D23" s="36" t="n">
+      <c r="D23" s="36">
         <v>213</v>
       </c>
-      <c r="E23" s="36" t="n">
+      <c r="E23" s="36">
         <v>174</v>
       </c>
-      <c r="F23" s="36" t="n">
+      <c r="F23" s="36">
         <v>10</v>
       </c>
-      <c r="G23" s="36" t="n">
+      <c r="G23" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A24" s="61" t="inlineStr">
-        <is>
-          <t>Otras poblaciones</t>
-        </is>
-      </c>
-      <c r="B24" s="40" t="n">
+    <row r="24" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="22">
         <v>151</v>
       </c>
-      <c r="C24" s="40" t="n">
+      <c r="C24" s="22">
         <v>76</v>
       </c>
-      <c r="D24" s="40" t="n">
+      <c r="D24" s="22">
         <v>55</v>
       </c>
-      <c r="E24" s="40" t="n">
+      <c r="E24" s="22">
         <v>17</v>
       </c>
-      <c r="F24" s="40" t="n">
+      <c r="F24" s="22">
         <v>3</v>
       </c>
-      <c r="G24" s="40" t="n">
+      <c r="G24" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="37">
-      <c r="A25" s="16" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B25" s="36" t="n">
+    <row r="25" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="36">
         <v>563</v>
       </c>
-      <c r="C25" s="36" t="n">
+      <c r="C25" s="36">
         <v>7</v>
       </c>
-      <c r="D25" s="36" t="n">
+      <c r="D25" s="36">
         <v>2</v>
       </c>
-      <c r="E25" s="36" t="n">
+      <c r="E25" s="36">
         <v>554</v>
       </c>
-      <c r="F25" s="36" t="n">
+      <c r="F25" s="36">
         <v>0</v>
       </c>
-      <c r="G25" s="36" t="n">
+      <c r="G25" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="19" t="inlineStr">
-        <is>
-          <t>Nota: No se incluyen los servicios en el parque.</t>
-        </is>
-      </c>
-      <c r="B26" s="51" t="n"/>
-      <c r="D26" s="28" t="n"/>
-      <c r="E26" s="28" t="n"/>
-      <c r="F26" s="28" t="n"/>
-      <c r="G26" s="28" t="n"/>
-      <c r="H26" s="28" t="n"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
     </row>
-    <row r="27">
-      <c r="A27" s="19" t="inlineStr">
-        <is>
-          <t>Fuente: Departamento de Bomberos, Prevención, Intervención en Emergencias y Protección Civil. Ayuntamiento de València</t>
-        </is>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="30" t="n"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
-    <row r="30">
-      <c r="A30" s="34" t="n"/>
-      <c r="B30" s="29" t="n"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="30"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
-    <row r="31">
-      <c r="B31" s="29" t="n"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
-    <row r="32">
-      <c r="B32" s="29" t="n"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="29"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
-    <row r="33">
-      <c r="B33" s="29" t="n"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="29"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
-    <row r="54">
-      <c r="G54">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="29"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="24"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="1">
         <f>SUM(F28)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>